--- a/employeeList.xlsx
+++ b/employeeList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5F310E-1338-47FF-8D70-3300135CB2FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E2B418-48AF-4129-A8F1-5F2ABC95CF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Macha</t>
+  </si>
+  <si>
+    <t>Blazit</t>
   </si>
 </sst>
 </file>
@@ -82,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,76 +368,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3453123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>543513</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>12315315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>153153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>21313</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1534753</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>123135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>420420</v>
       </c>
     </row>
   </sheetData>

--- a/employeeList.xlsx
+++ b/employeeList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E2B418-48AF-4129-A8F1-5F2ABC95CF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19484B15-EEDB-4C2A-9873-EB73A452F4ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Blazit</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>0002134</t>
   </si>
 </sst>
 </file>
@@ -368,13 +374,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -444,8 +453,16 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>420420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/employeeList.xlsx
+++ b/employeeList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19484B15-EEDB-4C2A-9873-EB73A452F4ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB1070D-BB0C-4B2C-87E7-834ED008458F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33675" yWindow="1605" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>0002134</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>000987</t>
+  </si>
+  <si>
+    <t>Jonny</t>
+  </si>
+  <si>
+    <t>111000</t>
   </si>
 </sst>
 </file>
@@ -374,11 +386,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -465,6 +475,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/employeeList.xlsx
+++ b/employeeList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB1070D-BB0C-4B2C-87E7-834ED008458F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F82590D-111A-4926-BAF8-2C0283A496E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33675" yWindow="1605" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3285" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,54 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>EmployeeID</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Jacque</t>
-  </si>
-  <si>
-    <t>Lorri</t>
-  </si>
-  <si>
-    <t>Macha</t>
-  </si>
-  <si>
-    <t>Blazit</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>0002134</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>000987</t>
-  </si>
-  <si>
-    <t>Jonny</t>
-  </si>
-  <si>
-    <t>111000</t>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>John Marston</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>124152</t>
+  </si>
+  <si>
+    <t>251241</t>
+  </si>
+  <si>
+    <t>123241</t>
   </si>
 </sst>
 </file>
@@ -386,13 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,90 +383,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3453123</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>543513</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12315315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>153153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>21313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1534753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>123135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>420420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/employeeList.xlsx
+++ b/employeeList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F82590D-111A-4926-BAF8-2C0283A496E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD5D9E-C07D-4161-9345-75A25CF009D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3285" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1695" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,9 @@
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Dmitry</t>
-  </si>
-  <si>
     <t>John Marston</t>
   </si>
   <si>
-    <t>Louise</t>
-  </si>
-  <si>
     <t>124152</t>
   </si>
   <si>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>123241</t>
+  </si>
+  <si>
+    <t>Louise Forestier</t>
+  </si>
+  <si>
+    <t>Dmitry Kalinov</t>
   </si>
 </sst>
 </file>
@@ -365,11 +365,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -383,26 +384,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
